--- a/data/nba_team_stats.xlsx
+++ b/data/nba_team_stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecb6945849aeec91/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannanajmal/OneDrive/Documents/201/INFO-201-Group-1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C834157F-8014-7743-AF28-01BDE5D8D87E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{C834157F-8014-7743-AF28-01BDE5D8D87E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0B1A3D6-B71E-E744-954A-76554EA0EBFB}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{A894E25E-08BC-C84F-9E0A-B9BA46BF1C86}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="57">
   <si>
     <t>Team</t>
   </si>
@@ -97,97 +97,16 @@
     <t>PPG</t>
   </si>
   <si>
-    <t>Golden State</t>
-  </si>
-  <si>
-    <t>Oklahoma City</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
     <t>Houston</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>Portland</t>
-  </si>
-  <si>
-    <t>L.A. Clippers</t>
   </si>
   <si>
     <t>Cleveland</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>New Orleans</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>Detroit</t>
-  </si>
-  <si>
     <t>Denver</t>
   </si>
   <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Milwaukee</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
     <t>New York</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>L.A. Lakers</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
   </si>
   <si>
     <r>
@@ -208,6 +127,99 @@
       </rPr>
       <t>tart Year</t>
     </r>
+  </si>
+  <si>
+    <t>Warriors</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>Rockets</t>
+  </si>
+  <si>
+    <t>Trail Blazers</t>
+  </si>
+  <si>
+    <t>Clippers</t>
+  </si>
+  <si>
+    <t>Cavaliers</t>
+  </si>
+  <si>
+    <t>Wizards</t>
+  </si>
+  <si>
+    <t>Spurs</t>
+  </si>
+  <si>
+    <t>Hornets</t>
+  </si>
+  <si>
+    <t>Hawks</t>
+  </si>
+  <si>
+    <t>Pelicans</t>
+  </si>
+  <si>
+    <t>Raptors</t>
+  </si>
+  <si>
+    <t>Timberwolves</t>
+  </si>
+  <si>
+    <t>Mavericks</t>
+  </si>
+  <si>
+    <t>Pacers</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Pistons</t>
+  </si>
+  <si>
+    <t>Nuggets</t>
+  </si>
+  <si>
+    <t>Bulls</t>
+  </si>
+  <si>
+    <t>Suns</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Grizzlies</t>
+  </si>
+  <si>
+    <t>Bucks</t>
+  </si>
+  <si>
+    <t>Nets</t>
+  </si>
+  <si>
+    <t>Knicks</t>
+  </si>
+  <si>
+    <t>Jazz</t>
+  </si>
+  <si>
+    <t>76ers</t>
+  </si>
+  <si>
+    <t>Lakers</t>
+  </si>
+  <si>
+    <t>Celtics</t>
+  </si>
+  <si>
+    <t>jazz</t>
   </si>
 </sst>
 </file>
@@ -592,15 +604,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A09D76-F0D4-4142-9C02-003FBB82269E}">
   <dimension ref="A1:V181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152:A181"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -671,7 +683,7 @@
         <v>2015</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>82</v>
@@ -739,7 +751,7 @@
         <v>2015</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>82</v>
@@ -807,7 +819,7 @@
         <v>2015</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>82</v>
@@ -875,7 +887,7 @@
         <v>2015</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>82</v>
@@ -943,7 +955,7 @@
         <v>2015</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <v>82</v>
@@ -1011,7 +1023,7 @@
         <v>2015</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>82</v>
@@ -1079,7 +1091,7 @@
         <v>2015</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>82</v>
@@ -1147,7 +1159,7 @@
         <v>2015</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <v>82</v>
@@ -1215,7 +1227,7 @@
         <v>2015</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
         <v>82</v>
@@ -1283,7 +1295,7 @@
         <v>2015</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>82</v>
@@ -1351,7 +1363,7 @@
         <v>2015</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>82</v>
@@ -1419,7 +1431,7 @@
         <v>2015</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>82</v>
@@ -1487,7 +1499,7 @@
         <v>2015</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>82</v>
@@ -1555,7 +1567,7 @@
         <v>2015</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>82</v>
@@ -1623,7 +1635,7 @@
         <v>2015</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <v>82</v>
@@ -1691,7 +1703,7 @@
         <v>2015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>82</v>
@@ -1759,7 +1771,7 @@
         <v>2015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>82</v>
@@ -1827,7 +1839,7 @@
         <v>2015</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
         <v>82</v>
@@ -1895,7 +1907,7 @@
         <v>2015</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2">
         <v>82</v>
@@ -1963,7 +1975,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
         <v>82</v>
@@ -2031,7 +2043,7 @@
         <v>2015</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
         <v>82</v>
@@ -2099,7 +2111,7 @@
         <v>2015</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
         <v>82</v>
@@ -2167,7 +2179,7 @@
         <v>2015</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2">
         <v>82</v>
@@ -2235,7 +2247,7 @@
         <v>2015</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2">
         <v>82</v>
@@ -2303,7 +2315,7 @@
         <v>2015</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2">
         <v>82</v>
@@ -2371,7 +2383,7 @@
         <v>2015</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2">
         <v>82</v>
@@ -2439,7 +2451,7 @@
         <v>2015</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2">
         <v>82</v>
@@ -2507,7 +2519,7 @@
         <v>2015</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2">
         <v>82</v>
@@ -2575,7 +2587,7 @@
         <v>2015</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2">
         <v>82</v>
@@ -2643,7 +2655,7 @@
         <v>2015</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2">
         <v>82</v>
@@ -2711,7 +2723,7 @@
         <v>2014</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
         <v>82</v>
@@ -2779,7 +2791,7 @@
         <v>2014</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2">
         <v>82</v>
@@ -2847,7 +2859,7 @@
         <v>2014</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2">
         <v>82</v>
@@ -2915,7 +2927,7 @@
         <v>2014</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2">
         <v>82</v>
@@ -2983,7 +2995,7 @@
         <v>2014</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2">
         <v>82</v>
@@ -3051,7 +3063,7 @@
         <v>2014</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2">
         <v>82</v>
@@ -3119,7 +3131,7 @@
         <v>2014</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2">
         <v>82</v>
@@ -3187,7 +3199,7 @@
         <v>2014</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2">
         <v>82</v>
@@ -3255,7 +3267,7 @@
         <v>2014</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2">
         <v>82</v>
@@ -3323,7 +3335,7 @@
         <v>2014</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2">
         <v>82</v>
@@ -3391,7 +3403,7 @@
         <v>2014</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2">
         <v>82</v>
@@ -3459,7 +3471,7 @@
         <v>2014</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2">
         <v>82</v>
@@ -3527,7 +3539,7 @@
         <v>2014</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2">
         <v>82</v>
@@ -3595,7 +3607,7 @@
         <v>2014</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C45" s="2">
         <v>82</v>
@@ -3663,7 +3675,7 @@
         <v>2014</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2">
         <v>82</v>
@@ -3731,7 +3743,7 @@
         <v>2014</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C47" s="2">
         <v>82</v>
@@ -3799,7 +3811,7 @@
         <v>2014</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C48" s="2">
         <v>82</v>
@@ -3867,7 +3879,7 @@
         <v>2014</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2">
         <v>82</v>
@@ -3935,7 +3947,7 @@
         <v>2014</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2">
         <v>82</v>
@@ -4003,7 +4015,7 @@
         <v>2014</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2">
         <v>82</v>
@@ -4071,7 +4083,7 @@
         <v>2014</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2">
         <v>82</v>
@@ -4139,7 +4151,7 @@
         <v>2014</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2">
         <v>82</v>
@@ -4207,7 +4219,7 @@
         <v>2014</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C54" s="2">
         <v>82</v>
@@ -4275,7 +4287,7 @@
         <v>2014</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C55" s="2">
         <v>82</v>
@@ -4343,7 +4355,7 @@
         <v>2014</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C56" s="2">
         <v>82</v>
@@ -4411,7 +4423,7 @@
         <v>2014</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2">
         <v>82</v>
@@ -4479,7 +4491,7 @@
         <v>2014</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2">
         <v>82</v>
@@ -4547,7 +4559,7 @@
         <v>2014</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C59" s="2">
         <v>82</v>
@@ -4615,7 +4627,7 @@
         <v>2014</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2">
         <v>82</v>
@@ -4683,7 +4695,7 @@
         <v>2014</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C61" s="2">
         <v>82</v>
@@ -4751,7 +4763,7 @@
         <v>2013</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C62" s="2">
         <v>82</v>
@@ -4819,7 +4831,7 @@
         <v>2013</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C63" s="2">
         <v>82</v>
@@ -4887,7 +4899,7 @@
         <v>2013</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C64" s="2">
         <v>82</v>
@@ -4955,7 +4967,7 @@
         <v>2013</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C65" s="2">
         <v>82</v>
@@ -5023,7 +5035,7 @@
         <v>2013</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C66" s="2">
         <v>82</v>
@@ -5091,7 +5103,7 @@
         <v>2013</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C67" s="2">
         <v>82</v>
@@ -5159,7 +5171,7 @@
         <v>2013</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2">
         <v>82</v>
@@ -5227,7 +5239,7 @@
         <v>2013</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C69" s="2">
         <v>82</v>
@@ -5295,7 +5307,7 @@
         <v>2013</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C70" s="2">
         <v>82</v>
@@ -5363,7 +5375,7 @@
         <v>2013</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C71" s="2">
         <v>82</v>
@@ -5431,7 +5443,7 @@
         <v>2013</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2">
         <v>82</v>
@@ -5499,7 +5511,7 @@
         <v>2013</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2">
         <v>82</v>
@@ -5567,7 +5579,7 @@
         <v>2013</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C74" s="2">
         <v>82</v>
@@ -5635,7 +5647,7 @@
         <v>2013</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2">
         <v>82</v>
@@ -5703,7 +5715,7 @@
         <v>2013</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C76" s="2">
         <v>82</v>
@@ -5771,7 +5783,7 @@
         <v>2013</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C77" s="2">
         <v>82</v>
@@ -5839,7 +5851,7 @@
         <v>2013</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C78" s="2">
         <v>82</v>
@@ -5907,7 +5919,7 @@
         <v>2013</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C79" s="2">
         <v>82</v>
@@ -5975,7 +5987,7 @@
         <v>2013</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2">
         <v>82</v>
@@ -6043,7 +6055,7 @@
         <v>2013</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2">
         <v>82</v>
@@ -6111,7 +6123,7 @@
         <v>2013</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2">
         <v>82</v>
@@ -6179,7 +6191,7 @@
         <v>2013</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C83" s="2">
         <v>82</v>
@@ -6247,7 +6259,7 @@
         <v>2013</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C84" s="2">
         <v>82</v>
@@ -6315,7 +6327,7 @@
         <v>2013</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C85" s="2">
         <v>82</v>
@@ -6383,7 +6395,7 @@
         <v>2013</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C86" s="2">
         <v>82</v>
@@ -6451,7 +6463,7 @@
         <v>2013</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2">
         <v>82</v>
@@ -6519,7 +6531,7 @@
         <v>2013</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C88" s="2">
         <v>82</v>
@@ -6587,7 +6599,7 @@
         <v>2013</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C89" s="2">
         <v>82</v>
@@ -6655,7 +6667,7 @@
         <v>2013</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2">
         <v>82</v>
@@ -6723,7 +6735,7 @@
         <v>2013</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2">
         <v>82</v>
@@ -6791,7 +6803,7 @@
         <v>2012</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2">
         <v>82</v>
@@ -6859,7 +6871,7 @@
         <v>2012</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C93" s="2">
         <v>82</v>
@@ -6927,7 +6939,7 @@
         <v>2012</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C94" s="2">
         <v>82</v>
@@ -6995,7 +7007,7 @@
         <v>2012</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C95" s="2">
         <v>82</v>
@@ -7063,7 +7075,7 @@
         <v>2012</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C96" s="2">
         <v>82</v>
@@ -7131,7 +7143,7 @@
         <v>2012</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2">
         <v>82</v>
@@ -7199,7 +7211,7 @@
         <v>2012</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C98" s="2">
         <v>82</v>
@@ -7267,7 +7279,7 @@
         <v>2012</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C99" s="2">
         <v>82</v>
@@ -7335,7 +7347,7 @@
         <v>2012</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C100" s="2">
         <v>82</v>
@@ -7403,7 +7415,7 @@
         <v>2012</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C101" s="2">
         <v>82</v>
@@ -7471,7 +7483,7 @@
         <v>2012</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2">
         <v>82</v>
@@ -7539,7 +7551,7 @@
         <v>2012</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2">
         <v>82</v>
@@ -7607,7 +7619,7 @@
         <v>2012</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C104" s="2">
         <v>82</v>
@@ -7675,7 +7687,7 @@
         <v>2012</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C105" s="2">
         <v>82</v>
@@ -7743,7 +7755,7 @@
         <v>2012</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C106" s="2">
         <v>82</v>
@@ -7811,7 +7823,7 @@
         <v>2012</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C107" s="2">
         <v>82</v>
@@ -7879,7 +7891,7 @@
         <v>2012</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2">
         <v>82</v>
@@ -7947,7 +7959,7 @@
         <v>2012</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2">
         <v>81</v>
@@ -8015,7 +8027,7 @@
         <v>2012</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C110" s="2">
         <v>82</v>
@@ -8083,7 +8095,7 @@
         <v>2012</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C111" s="2">
         <v>82</v>
@@ -8151,7 +8163,7 @@
         <v>2012</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C112" s="2">
         <v>82</v>
@@ -8219,7 +8231,7 @@
         <v>2012</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C113" s="2">
         <v>82</v>
@@ -8287,7 +8299,7 @@
         <v>2012</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C114" s="2">
         <v>81</v>
@@ -8355,7 +8367,7 @@
         <v>2012</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C115" s="2">
         <v>82</v>
@@ -8423,7 +8435,7 @@
         <v>2012</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C116" s="2">
         <v>82</v>
@@ -8491,7 +8503,7 @@
         <v>2012</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C117" s="2">
         <v>82</v>
@@ -8559,7 +8571,7 @@
         <v>2012</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C118" s="2">
         <v>82</v>
@@ -8627,7 +8639,7 @@
         <v>2012</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C119" s="2">
         <v>82</v>
@@ -8695,7 +8707,7 @@
         <v>2012</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C120" s="2">
         <v>82</v>
@@ -8763,7 +8775,7 @@
         <v>2012</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C121" s="2">
         <v>82</v>
@@ -8831,7 +8843,7 @@
         <v>2011</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C122" s="2">
         <v>66</v>
@@ -8899,7 +8911,7 @@
         <v>2011</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C123" s="2">
         <v>66</v>
@@ -8967,7 +8979,7 @@
         <v>2011</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C124" s="2">
         <v>66</v>
@@ -9035,7 +9047,7 @@
         <v>2011</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2">
         <v>66</v>
@@ -9103,7 +9115,7 @@
         <v>2011</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C126" s="2">
         <v>66</v>
@@ -9171,7 +9183,7 @@
         <v>2011</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C127" s="2">
         <v>66</v>
@@ -9239,7 +9251,7 @@
         <v>2011</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2">
         <v>66</v>
@@ -9307,7 +9319,7 @@
         <v>2011</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C129" s="2">
         <v>66</v>
@@ -9375,7 +9387,7 @@
         <v>2011</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C130" s="2">
         <v>66</v>
@@ -9443,7 +9455,7 @@
         <v>2011</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C131" s="2">
         <v>66</v>
@@ -9511,7 +9523,7 @@
         <v>2011</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C132" s="2">
         <v>66</v>
@@ -9579,7 +9591,7 @@
         <v>2011</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C133" s="2">
         <v>66</v>
@@ -9647,7 +9659,7 @@
         <v>2011</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C134" s="2">
         <v>66</v>
@@ -9715,7 +9727,7 @@
         <v>2011</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C135" s="2">
         <v>66</v>
@@ -9783,7 +9795,7 @@
         <v>2011</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C136" s="2">
         <v>66</v>
@@ -9851,7 +9863,7 @@
         <v>2011</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C137" s="2">
         <v>66</v>
@@ -9919,7 +9931,7 @@
         <v>2011</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C138" s="2">
         <v>66</v>
@@ -9987,7 +9999,7 @@
         <v>2011</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C139" s="2">
         <v>66</v>
@@ -10055,7 +10067,7 @@
         <v>2011</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C140" s="2">
         <v>66</v>
@@ -10123,7 +10135,7 @@
         <v>2011</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C141" s="2">
         <v>66</v>
@@ -10191,7 +10203,7 @@
         <v>2011</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C142" s="2">
         <v>66</v>
@@ -10259,7 +10271,7 @@
         <v>2011</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C143" s="2">
         <v>66</v>
@@ -10327,7 +10339,7 @@
         <v>2011</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C144" s="2">
         <v>66</v>
@@ -10395,7 +10407,7 @@
         <v>2011</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C145" s="2">
         <v>66</v>
@@ -10463,7 +10475,7 @@
         <v>2011</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C146" s="2">
         <v>66</v>
@@ -10531,7 +10543,7 @@
         <v>2011</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C147" s="2">
         <v>66</v>
@@ -10599,7 +10611,7 @@
         <v>2011</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C148" s="2">
         <v>66</v>
@@ -10667,7 +10679,7 @@
         <v>2011</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C149" s="2">
         <v>66</v>
@@ -10735,7 +10747,7 @@
         <v>2011</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C150" s="2">
         <v>66</v>
@@ -10803,7 +10815,7 @@
         <v>2011</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C151" s="2">
         <v>66</v>
@@ -10871,7 +10883,7 @@
         <v>2010</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C152" s="2">
         <v>82</v>
@@ -10939,7 +10951,7 @@
         <v>2010</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C153" s="2">
         <v>82</v>
@@ -11007,7 +11019,7 @@
         <v>2010</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C154" s="2">
         <v>82</v>
@@ -11075,7 +11087,7 @@
         <v>2010</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C155" s="2">
         <v>82</v>
@@ -11143,7 +11155,7 @@
         <v>2010</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C156" s="2">
         <v>82</v>
@@ -11211,7 +11223,7 @@
         <v>2010</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C157" s="2">
         <v>82</v>
@@ -11279,7 +11291,7 @@
         <v>2010</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C158" s="2">
         <v>82</v>
@@ -11347,7 +11359,7 @@
         <v>2010</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C159" s="2">
         <v>82</v>
@@ -11415,7 +11427,7 @@
         <v>2010</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C160" s="2">
         <v>82</v>
@@ -11483,7 +11495,7 @@
         <v>2010</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C161" s="2">
         <v>82</v>
@@ -11551,7 +11563,7 @@
         <v>2010</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C162" s="2">
         <v>82</v>
@@ -11619,7 +11631,7 @@
         <v>2010</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C163" s="2">
         <v>82</v>
@@ -11687,7 +11699,7 @@
         <v>2010</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C164" s="2">
         <v>82</v>
@@ -11755,7 +11767,7 @@
         <v>2010</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C165" s="2">
         <v>82</v>
@@ -11823,7 +11835,7 @@
         <v>2010</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C166" s="2">
         <v>82</v>
@@ -11891,7 +11903,7 @@
         <v>2010</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C167" s="2">
         <v>82</v>
@@ -11959,7 +11971,7 @@
         <v>2010</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C168" s="2">
         <v>82</v>
@@ -12027,7 +12039,7 @@
         <v>2010</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C169" s="2">
         <v>82</v>
@@ -12095,7 +12107,7 @@
         <v>2010</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C170" s="2">
         <v>82</v>
@@ -12163,7 +12175,7 @@
         <v>2010</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C171" s="2">
         <v>82</v>
@@ -12231,7 +12243,7 @@
         <v>2010</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C172" s="2">
         <v>82</v>
@@ -12299,7 +12311,7 @@
         <v>2010</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C173" s="2">
         <v>82</v>
@@ -12367,7 +12379,7 @@
         <v>2010</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C174" s="2">
         <v>82</v>
@@ -12435,7 +12447,7 @@
         <v>2010</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C175" s="2">
         <v>82</v>
@@ -12503,7 +12515,7 @@
         <v>2010</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C176" s="2">
         <v>82</v>
@@ -12571,7 +12583,7 @@
         <v>2010</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C177" s="2">
         <v>82</v>
@@ -12639,7 +12651,7 @@
         <v>2010</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C178" s="2">
         <v>82</v>
@@ -12707,7 +12719,7 @@
         <v>2010</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C179" s="2">
         <v>82</v>
@@ -12775,7 +12787,7 @@
         <v>2010</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C180" s="2">
         <v>82</v>
@@ -12843,7 +12855,7 @@
         <v>2010</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C181" s="2">
         <v>82</v>
@@ -12933,182 +12945,181 @@
     <hyperlink ref="B3" r:id="rId23" display="https://basketball.realgm.com/nba/teams/Oklahoma-City-Thunder/33/Stats" xr:uid="{2540FDB4-8B52-A341-B9A2-F977C9D946EA}"/>
     <hyperlink ref="B4" r:id="rId24" display="https://basketball.realgm.com/nba/teams/Sacramento-Kings/25/Stats" xr:uid="{9F0C1F55-1B63-8C42-AD6B-0DEBE190825D}"/>
     <hyperlink ref="B5" r:id="rId25" display="https://basketball.realgm.com/nba/teams/Houston-Rockets/10/Stats" xr:uid="{A20202F8-50E7-F24C-8B8B-2F2170C1AFC0}"/>
-    <hyperlink ref="B6" r:id="rId26" display="https://basketball.realgm.com/nba/teams/Boston-Celtics/2/Stats" xr:uid="{2837042F-79FE-8340-9F0B-4B4FDDBDAD11}"/>
-    <hyperlink ref="B7" r:id="rId27" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{15473A2C-C693-5E4F-A963-68997D898FBD}"/>
-    <hyperlink ref="B8" r:id="rId28" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{81E71CD5-A5E4-AB46-994D-B67F4C9C5E65}"/>
-    <hyperlink ref="B9" r:id="rId29" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{1657A643-2152-3447-A987-0D08BBB53604}"/>
-    <hyperlink ref="B10" r:id="rId30" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{CB798A66-2D3E-6D4E-BD75-1068E2B26ECC}"/>
-    <hyperlink ref="B11" r:id="rId31" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{C9B68ED5-FADF-E14F-BFED-D7B1F431DCD8}"/>
-    <hyperlink ref="B12" r:id="rId32" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{A25F4C36-1944-B44B-9C0A-7606EFBC12A9}"/>
-    <hyperlink ref="B13" r:id="rId33" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{1E18DC13-4328-A94D-B095-8292D88E4ADC}"/>
-    <hyperlink ref="B14" r:id="rId34" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{AE4B4E7D-BD8C-1B4E-B6A4-8F63392354C2}"/>
-    <hyperlink ref="B15" r:id="rId35" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{25D30006-DFC5-484A-A4C0-A9061022C7F2}"/>
-    <hyperlink ref="B16" r:id="rId36" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{96F6F686-D6A7-B94E-B2F1-FB11F4BA330C}"/>
-    <hyperlink ref="B17" r:id="rId37" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{0E36D995-AA10-814A-A60C-DCD7987FC81C}"/>
-    <hyperlink ref="B18" r:id="rId38" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{7941D1D3-05CA-5A42-A73F-A63B36B7270C}"/>
-    <hyperlink ref="B19" r:id="rId39" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{87F11944-1316-334B-8C0B-55ED5C258C71}"/>
-    <hyperlink ref="B20" r:id="rId40" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{31CC5C0C-8130-B74B-8C7E-BDC147BE8A0F}"/>
-    <hyperlink ref="B21" r:id="rId41" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{EDD4B697-1C1B-0642-8A06-95EC1A306405}"/>
-    <hyperlink ref="B22" r:id="rId42" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{E0A52365-F5F0-2C48-9077-AC45A04D207B}"/>
-    <hyperlink ref="B23" r:id="rId43" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{7BA75719-BE94-954D-B418-A249DE94817C}"/>
-    <hyperlink ref="B24" r:id="rId44" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{7352E060-E060-F145-84F6-4953ACC15F49}"/>
-    <hyperlink ref="B25" r:id="rId45" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{4D255AD1-B168-D040-8637-5B22F1A42400}"/>
-    <hyperlink ref="B26" r:id="rId46" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{499AB710-77C7-F044-802E-669B9E71C169}"/>
-    <hyperlink ref="B27" r:id="rId47" display="https://basketball.realgm.com/nba/teams/Brooklyn-Nets/38/Stats" xr:uid="{9D82E2C1-5B09-3942-8565-0837B72AB193}"/>
-    <hyperlink ref="B28" r:id="rId48" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{B991D97B-4476-894A-AF5A-5AD96532336C}"/>
-    <hyperlink ref="B29" r:id="rId49" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{95D3B38B-2AC3-9E4C-89F8-F5E8AC4B14B2}"/>
-    <hyperlink ref="B30" r:id="rId50" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{BAD9E434-1093-D045-91E5-8E31C3DBD4D8}"/>
-    <hyperlink ref="B31" r:id="rId51" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{EA28AE9C-AE46-1649-A376-B1503FD0D0E8}"/>
-    <hyperlink ref="B32" r:id="rId52" display="https://basketball.realgm.com/nba/teams/Golden-State-Warriors/9/Stats" xr:uid="{D9CE7E40-FFDE-1244-BC39-3BA3C2F2255F}"/>
-    <hyperlink ref="B33" r:id="rId53" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{1226A6FE-CB6D-9640-AA03-C90556FB932A}"/>
-    <hyperlink ref="B34" r:id="rId54" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{9D51ED59-A810-2C4B-9EC4-DACC43856E19}"/>
-    <hyperlink ref="B35" r:id="rId55" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{2CDF3E11-08EA-5E43-A274-F688190F56D6}"/>
-    <hyperlink ref="B36" r:id="rId56" display="https://basketball.realgm.com/nba/teams/Oklahoma-City-Thunder/33/Stats" xr:uid="{504D7DFA-82C3-8945-9FF3-BEDAD59E225E}"/>
-    <hyperlink ref="B37" r:id="rId57" display="https://basketball.realgm.com/nba/teams/Houston-Rockets/10/Stats" xr:uid="{AB11B9A8-4C7F-B04D-A096-86650F4FD001}"/>
-    <hyperlink ref="B38" r:id="rId58" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{0E0D3DAD-D42C-1B40-8D4E-6CAFCAE77FA6}"/>
-    <hyperlink ref="B39" r:id="rId59" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{FE9CC5EB-7F0F-0145-8E51-06FE0E603634}"/>
-    <hyperlink ref="B40" r:id="rId60" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{A3BA4F1C-BCA1-1841-9136-3CF22D742314}"/>
-    <hyperlink ref="B41" r:id="rId61" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{3D58D815-F08F-6949-899A-E58DC26110C4}"/>
-    <hyperlink ref="B42" r:id="rId62" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{4156C81E-7C20-DE40-A72C-80CF41EF4EB3}"/>
-    <hyperlink ref="B43" r:id="rId63" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{81F522C8-FDDA-FC4C-A73B-EDEFADF309D9}"/>
-    <hyperlink ref="B44" r:id="rId64" display="https://basketball.realgm.com/nba/teams/Boston-Celtics/2/Stats" xr:uid="{98497AFC-A330-4F43-BBF7-B85662B46D8A}"/>
-    <hyperlink ref="B45" r:id="rId65" display="https://basketball.realgm.com/nba/teams/Sacramento-Kings/25/Stats" xr:uid="{B25B207B-E158-9141-8D9B-C783326D1622}"/>
-    <hyperlink ref="B46" r:id="rId66" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{07D5A53D-03D7-954E-B99E-5F025522452D}"/>
-    <hyperlink ref="B47" r:id="rId67" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{CC7ED725-0896-5F43-B330-1DF09CAC410E}"/>
-    <hyperlink ref="B48" r:id="rId68" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{2E6EAE4A-7835-D641-84D7-337B6F1C4EA1}"/>
-    <hyperlink ref="B49" r:id="rId69" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{62269066-BC55-AF4A-8D87-24E796698540}"/>
-    <hyperlink ref="B50" r:id="rId70" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{00637644-3C18-D340-94EA-E28A39831EFF}"/>
-    <hyperlink ref="B51" r:id="rId71" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{2EE6C694-4B31-A141-8D31-1B3AF6C6D3EF}"/>
-    <hyperlink ref="B52" r:id="rId72" display="https://basketball.realgm.com/nba/teams/Brooklyn-Nets/38/Stats" xr:uid="{A67BC0A7-A199-CC4A-873D-F28AE6ABDDA4}"/>
-    <hyperlink ref="B53" r:id="rId73" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{BD672A57-605F-3647-B96B-6BDA3C65DF8E}"/>
-    <hyperlink ref="B54" r:id="rId74" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{9506E474-95BC-AE49-9AB2-9FAF1794EBD0}"/>
-    <hyperlink ref="B55" r:id="rId75" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{6FF8C741-F251-BB49-B702-F247B03A52DF}"/>
-    <hyperlink ref="B56" r:id="rId76" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{350E7A43-49E4-4B4B-8A5A-4258FB1F841F}"/>
-    <hyperlink ref="B57" r:id="rId77" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{3AC71B13-9EB7-AA4F-AA5C-76AAEBF987F7}"/>
-    <hyperlink ref="B58" r:id="rId78" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{CF216D72-F72E-B440-9A4A-BD42227C9B8A}"/>
-    <hyperlink ref="B59" r:id="rId79" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{76D498C0-D588-094C-8EC1-17BC11E9C6D4}"/>
-    <hyperlink ref="B60" r:id="rId80" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{4180FE16-BEEF-9C4A-AC7E-C091EFA0B2C0}"/>
-    <hyperlink ref="B61" r:id="rId81" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{7B71A647-7DA1-C941-A97F-35CF7F75F555}"/>
-    <hyperlink ref="B62" r:id="rId82" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{D8E2A3F8-D5CD-7244-80B1-9ED9746FF295}"/>
-    <hyperlink ref="B63" r:id="rId83" display="https://basketball.realgm.com/nba/teams/Houston-Rockets/10/Stats" xr:uid="{82F875B7-F445-E544-A8D8-919C65F1603C}"/>
-    <hyperlink ref="B64" r:id="rId84" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{25468213-A649-D74C-819A-3311BD8BED8B}"/>
-    <hyperlink ref="B65" r:id="rId85" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{96BB3F37-9E01-4E48-B712-6AE0250037F8}"/>
-    <hyperlink ref="B66" r:id="rId86" display="https://basketball.realgm.com/nba/teams/Oklahoma-City-Thunder/33/Stats" xr:uid="{EDB4FEF6-3633-9344-979A-E93400B1795B}"/>
-    <hyperlink ref="B67" r:id="rId87" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{D562BEB3-FC37-4344-B6DC-ADD053E02183}"/>
-    <hyperlink ref="B68" r:id="rId88" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{CC58DAAF-99D6-7943-A659-F9DDD605DF44}"/>
-    <hyperlink ref="B69" r:id="rId89" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{8223E565-C618-8C41-A9FE-8637AA5542FD}"/>
-    <hyperlink ref="B70" r:id="rId90" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{B2B1FDB5-DAAF-354A-A032-83D455D1B12B}"/>
-    <hyperlink ref="B71" r:id="rId91" display="https://basketball.realgm.com/nba/teams/Golden-State-Warriors/9/Stats" xr:uid="{D24842DF-7A54-3145-8128-AD28AA1347D0}"/>
-    <hyperlink ref="B72" r:id="rId92" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{FC62AB42-0B9A-214D-BD56-5F2A404BD75A}"/>
-    <hyperlink ref="B73" r:id="rId93" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{2CC46303-1C18-4D4A-80D4-4D192647B602}"/>
-    <hyperlink ref="B74" r:id="rId94" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{D4AFCED5-AF16-A645-9332-CEF24FF6FE93}"/>
-    <hyperlink ref="B75" r:id="rId95" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{F4496402-8821-B647-91BD-15C240CCBC9E}"/>
-    <hyperlink ref="B76" r:id="rId96" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{32167C26-4889-C34D-AEC9-E064EF947B67}"/>
-    <hyperlink ref="B77" r:id="rId97" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{5081D7E3-66EE-C84F-9980-CB4DEAF32B0C}"/>
-    <hyperlink ref="B78" r:id="rId98" display="https://basketball.realgm.com/nba/teams/Sacramento-Kings/25/Stats" xr:uid="{44F187A2-02C5-BB44-A201-E0F6F23C3FDA}"/>
-    <hyperlink ref="B79" r:id="rId99" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{84FEF815-F13B-9941-9E11-2ED8AEA55043}"/>
-    <hyperlink ref="B80" r:id="rId100" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{2B9A5D6B-4C55-AA49-B377-5A72CA5841AA}"/>
-    <hyperlink ref="B81" r:id="rId101" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{947066F8-7177-2044-B42A-45F8ABF131E8}"/>
-    <hyperlink ref="B82" r:id="rId102" display="https://basketball.realgm.com/nba/teams/Brooklyn-Nets/38/Stats" xr:uid="{ED63181F-1326-F24E-806E-99898C80113B}"/>
-    <hyperlink ref="B83" r:id="rId103" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{CAB39560-1D30-F04A-962A-B49E02C37778}"/>
-    <hyperlink ref="B84" r:id="rId104" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{6B2A90A9-5318-4D45-B315-457AA5A394D1}"/>
-    <hyperlink ref="B85" r:id="rId105" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{59DAFCFA-1E35-AC47-B638-265C918E7161}"/>
-    <hyperlink ref="B86" r:id="rId106" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{DF0D5530-CD74-384F-96A0-6A1CDFED6EEA}"/>
-    <hyperlink ref="B87" r:id="rId107" display="https://basketball.realgm.com/nba/teams/Boston-Celtics/2/Stats" xr:uid="{00DA49EB-82EE-A848-B307-1D79B80E4316}"/>
-    <hyperlink ref="B88" r:id="rId108" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{6D53C5C0-AB3E-914B-9B67-52EA9F57726F}"/>
-    <hyperlink ref="B89" r:id="rId109" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{11068F53-09C4-3145-8609-117E7F4E719B}"/>
-    <hyperlink ref="B90" r:id="rId110" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{4DB3E4C9-CA0E-274E-93C7-AEC7A3BBDD1A}"/>
-    <hyperlink ref="B91" r:id="rId111" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{E13AFD63-C1E9-CD4F-8516-772D0151A327}"/>
-    <hyperlink ref="B92" r:id="rId112" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{27E266C6-AE2E-484F-9FA0-2AE47A380D22}"/>
-    <hyperlink ref="B93" r:id="rId113" display="https://basketball.realgm.com/nba/teams/Houston-Rockets/10/Stats" xr:uid="{868F15EE-9006-4E4C-9CFC-1C2D2B850CEF}"/>
-    <hyperlink ref="B94" r:id="rId114" display="https://basketball.realgm.com/nba/teams/Oklahoma-City-Thunder/33/Stats" xr:uid="{8588BFA4-2923-4341-A834-F0A3E9A17513}"/>
-    <hyperlink ref="B95" r:id="rId115" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{9BDEAC1E-65A5-8B4D-A8D9-2A0AA0E81359}"/>
-    <hyperlink ref="B96" r:id="rId116" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{D8B90AF0-65E6-7B40-9099-E1E369A64D69}"/>
-    <hyperlink ref="B97" r:id="rId117" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{7B1FD94C-DE97-EF46-B0CC-BC62B1CFB5C7}"/>
-    <hyperlink ref="B98" r:id="rId118" display="https://basketball.realgm.com/nba/teams/Golden-State-Warriors/9/Stats" xr:uid="{D3A2369F-E878-434A-841B-8AD99082C69B}"/>
-    <hyperlink ref="B99" r:id="rId119" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{08A06327-8DD6-0942-98A1-8DDDCFDB39E0}"/>
-    <hyperlink ref="B100" r:id="rId120" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{377B3BE6-053F-8D4F-8F0E-56479C5257AA}"/>
-    <hyperlink ref="B101" r:id="rId121" display="https://basketball.realgm.com/nba/teams/Sacramento-Kings/25/Stats" xr:uid="{2682EA4F-82E7-844A-8D43-52EDE365173B}"/>
-    <hyperlink ref="B102" r:id="rId122" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{E7D9203C-DF8F-4349-9066-855346ADE188}"/>
-    <hyperlink ref="B103" r:id="rId123" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{4850CB10-8267-4F45-8EF1-1E090F7616CF}"/>
-    <hyperlink ref="B104" r:id="rId124" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{08D6711F-EEBB-E546-913C-9403663A723D}"/>
-    <hyperlink ref="B105" r:id="rId125" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{3ADE9BC1-D50B-AF4B-A0EF-C38C7679C3BD}"/>
-    <hyperlink ref="B106" r:id="rId126" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{9093862C-B91F-A149-BA5D-7D81163D7AE3}"/>
-    <hyperlink ref="B107" r:id="rId127" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{DF91AAB7-1A67-AC45-96A1-9DDF0238D8D9}"/>
-    <hyperlink ref="B108" r:id="rId128" display="https://basketball.realgm.com/nba/teams/Brooklyn-Nets/38/Stats" xr:uid="{BA8DF927-3522-1744-BEA8-F579E9D92563}"/>
-    <hyperlink ref="B109" r:id="rId129" display="https://basketball.realgm.com/nba/teams/Boston-Celtics/2/Stats" xr:uid="{E14E9BB5-B716-1F44-BED8-76574D860595}"/>
-    <hyperlink ref="B110" r:id="rId130" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{C4F4B0D1-7D09-BD4E-BF37-119785F2E4B5}"/>
-    <hyperlink ref="B111" r:id="rId131" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{A832C620-31E7-8A45-838A-2BADD055526F}"/>
-    <hyperlink ref="B112" r:id="rId132" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{322B507D-388B-6449-BE17-748FDF9F0956}"/>
-    <hyperlink ref="B113" r:id="rId133" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{BB1148D7-23FF-2341-9A6D-68BA9E4D21A4}"/>
-    <hyperlink ref="B114" r:id="rId134" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{4825C1CF-07B2-C341-A1F8-DBD3BDCAFC86}"/>
-    <hyperlink ref="B115" r:id="rId135" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{A6E111CD-55D1-3A47-8E3E-6D21E1555C1A}"/>
-    <hyperlink ref="B116" r:id="rId136" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{1F74417B-9D65-BD4B-B783-8841A97BFAB6}"/>
-    <hyperlink ref="B117" r:id="rId137" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{361DF3A1-60A2-D042-BCD9-150B4C283970}"/>
-    <hyperlink ref="B118" r:id="rId138" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{55D913F6-0435-4D41-8E20-1CF2DA171048}"/>
-    <hyperlink ref="B119" r:id="rId139" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{4B4F800E-A8E7-1E43-9962-4F015EB13DE9}"/>
-    <hyperlink ref="B120" r:id="rId140" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{0448299A-A645-6047-B3BA-16EAE0388C59}"/>
-    <hyperlink ref="B121" r:id="rId141" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{EF81386A-EB5F-574E-A101-DD764A5D5438}"/>
-    <hyperlink ref="B122" r:id="rId142" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{92CF7EC5-ACCA-D54D-8F7A-5AE1792403A5}"/>
-    <hyperlink ref="B123" r:id="rId143" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{164574D0-882F-384C-BE1D-33E263F0C362}"/>
-    <hyperlink ref="B124" r:id="rId144" display="https://basketball.realgm.com/nba/teams/Oklahoma-City-Thunder/33/Stats" xr:uid="{ED421DD3-E019-AC45-ADAE-5F31BE83F77A}"/>
-    <hyperlink ref="B125" r:id="rId145" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{CEB9FC5C-65EC-3D47-8FBF-E67660905492}"/>
-    <hyperlink ref="B126" r:id="rId146" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{DB1AB5A6-7F7B-924C-96CF-9B0D514FEA2C}"/>
-    <hyperlink ref="B127" r:id="rId147" display="https://basketball.realgm.com/nba/teams/Sacramento-Kings/25/Stats" xr:uid="{A2110405-9FDE-E54C-9042-9251003360AB}"/>
-    <hyperlink ref="B128" r:id="rId148" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{AD2D31C5-67E1-2D47-809B-63E76F16E862}"/>
-    <hyperlink ref="B129" r:id="rId149" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{23B70678-29D8-9148-AB98-A846B878954E}"/>
-    <hyperlink ref="B130" r:id="rId150" display="https://basketball.realgm.com/nba/teams/Houston-Rockets/10/Stats" xr:uid="{F8764AD6-2FEE-B241-B8BC-7FC4ABA0A48C}"/>
-    <hyperlink ref="B131" r:id="rId151" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{80304F9E-9319-A147-8097-4FE528C44FE4}"/>
-    <hyperlink ref="B132" r:id="rId152" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{506A7BED-FC69-0B4D-A42F-A2C8BE03A35B}"/>
-    <hyperlink ref="B133" r:id="rId153" display="https://basketball.realgm.com/nba/teams/Golden-State-Warriors/9/Stats" xr:uid="{E20AE473-2C4B-5443-9C2B-CBDBB28692CF}"/>
-    <hyperlink ref="B134" r:id="rId154" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{AAD5DE9B-3FD2-4B4A-BBF0-9B34756711C5}"/>
-    <hyperlink ref="B135" r:id="rId155" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{9C5DD24C-27AA-0142-BBAB-788BE3788C87}"/>
-    <hyperlink ref="B136" r:id="rId156" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{09AD0154-F03B-904B-A633-71AD0BAB3A8D}"/>
-    <hyperlink ref="B137" r:id="rId157" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{732306E3-84DD-1642-875F-F6AB9A0B6D5B}"/>
-    <hyperlink ref="B138" r:id="rId158" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{64C27C79-8F54-3A47-BEC1-1B80634C51EA}"/>
-    <hyperlink ref="B139" r:id="rId159" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{A72B8C60-DF27-4B4D-A0B1-C7ED0912C021}"/>
-    <hyperlink ref="B140" r:id="rId160" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{4C2CF38D-C945-D04E-AF22-8AE3F214FFAE}"/>
-    <hyperlink ref="B141" r:id="rId161" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{28DAB44B-2846-9340-8652-30AFCB49E717}"/>
-    <hyperlink ref="B142" r:id="rId162" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{27FB3F26-76EE-0C46-B67F-314DA9DAA0C4}"/>
-    <hyperlink ref="B143" r:id="rId163" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{A744EFC2-007C-4C4A-B34A-F574B0E60AE1}"/>
-    <hyperlink ref="B144" r:id="rId164" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{7D7D9519-EFDB-AD4D-A787-2877E4529DA1}"/>
-    <hyperlink ref="B145" r:id="rId165" display="https://basketball.realgm.com/nba/teams/New-Jersey-Nets/18/Stats" xr:uid="{C6269BB4-FD76-2345-B909-B6580313A2D5}"/>
-    <hyperlink ref="B146" r:id="rId166" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{BF7F4569-3957-954C-8626-34902AC9465E}"/>
-    <hyperlink ref="B147" r:id="rId167" display="https://basketball.realgm.com/nba/teams/Boston-Celtics/2/Stats" xr:uid="{5DEA40AF-54DD-5146-8E7D-A0B48CC201D6}"/>
-    <hyperlink ref="B148" r:id="rId168" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{CDA7E227-3DAF-0C44-AFFC-889228704BD1}"/>
-    <hyperlink ref="B149" r:id="rId169" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{EF8100C6-135B-0143-98DB-A222CA1F4578}"/>
-    <hyperlink ref="B150" r:id="rId170" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{D412B240-DC82-DD4B-8644-BCD4A1160BC8}"/>
-    <hyperlink ref="B151" r:id="rId171" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{3DCBF76F-A02E-634E-BDAE-A5BDF9EF28C9}"/>
-    <hyperlink ref="B152" r:id="rId172" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{EC5EC35E-41CB-8E49-BBFD-3D9EE6A67238}"/>
-    <hyperlink ref="B153" r:id="rId173" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{44D106BF-AC30-944B-BDB8-839931EE1484}"/>
-    <hyperlink ref="B154" r:id="rId174" display="https://basketball.realgm.com/nba/teams/Houston-Rockets/10/Stats" xr:uid="{C1F90CC5-9E10-6846-8E98-3AB77BBF75D4}"/>
-    <hyperlink ref="B155" r:id="rId175" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{BC7260E9-AB96-5A40-8E93-1133B3EB2F0C}"/>
-    <hyperlink ref="B156" r:id="rId176" display="https://basketball.realgm.com/nba/teams/Oklahoma-City-Thunder/33/Stats" xr:uid="{A0D9DA34-8585-7644-A8AE-8FC9454EE80D}"/>
-    <hyperlink ref="B157" r:id="rId177" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{998858C8-D913-EC4E-81F6-7AFF6F9E5C9E}"/>
-    <hyperlink ref="B158" r:id="rId178" display="https://basketball.realgm.com/nba/teams/Golden-State-Warriors/9/Stats" xr:uid="{3513614A-E4A4-7F4E-87E4-1D7E2E934CEA}"/>
-    <hyperlink ref="B159" r:id="rId179" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{07AE38CF-2592-9A41-9F88-926475684743}"/>
-    <hyperlink ref="B160" r:id="rId180" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{5E3AEFB8-6F33-9448-B592-5277F79DBFF5}"/>
-    <hyperlink ref="B161" r:id="rId181" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{4563DA6A-5446-F246-920A-11523A4694EE}"/>
-    <hyperlink ref="B162" r:id="rId182" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{7B78569D-5FC8-AE44-AE49-EBD1B7CC8903}"/>
-    <hyperlink ref="B163" r:id="rId183" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{9D697B28-5BAA-2541-A0AE-327796FBC71E}"/>
-    <hyperlink ref="B164" r:id="rId184" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{8B711652-7247-1A4A-AE8D-7924511CFD93}"/>
-    <hyperlink ref="B165" r:id="rId185" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{24C93511-6A44-664B-AD7B-6F28BFB38E20}"/>
-    <hyperlink ref="B166" r:id="rId186" display="https://basketball.realgm.com/nba/teams/Sacramento-Kings/25/Stats" xr:uid="{DCE53FAE-763C-5D4F-B254-8FDA8A69D2FD}"/>
-    <hyperlink ref="B167" r:id="rId187" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{E227AA30-5A51-7540-B508-441CB51BE6CD}"/>
-    <hyperlink ref="B168" r:id="rId188" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{ED468236-3CF2-9D44-83E7-1E80F57D89B0}"/>
-    <hyperlink ref="B169" r:id="rId189" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{105132E3-812C-2B4B-B8C8-7A07FF1732BA}"/>
-    <hyperlink ref="B170" r:id="rId190" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{5D86B4AA-F711-6D47-A885-F0B378D767E4}"/>
-    <hyperlink ref="B171" r:id="rId191" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{15A9DE8A-F999-C24F-9B5B-4A903D3CA7B5}"/>
-    <hyperlink ref="B172" r:id="rId192" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{4BAD6E57-06F9-9E49-80DA-D46258EDD7E8}"/>
-    <hyperlink ref="B173" r:id="rId193" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{B0A4427F-C621-864A-B3EE-D7ED748F9803}"/>
-    <hyperlink ref="B174" r:id="rId194" display="https://basketball.realgm.com/nba/teams/Boston-Celtics/2/Stats" xr:uid="{94231874-79B9-C34D-BF0D-57D9BCF66CAC}"/>
-    <hyperlink ref="B175" r:id="rId195" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{EEBED650-C3B3-FB45-A910-4CF64C37546E}"/>
-    <hyperlink ref="B176" r:id="rId196" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{CE4EE2F7-8E27-1C43-8425-4995E5E18D38}"/>
-    <hyperlink ref="B177" r:id="rId197" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{CBE63B5C-CD0C-BE4A-B3AE-6BCEA73B531C}"/>
-    <hyperlink ref="B178" r:id="rId198" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{329BF99D-2969-F044-A44C-357F13DB955D}"/>
-    <hyperlink ref="B179" r:id="rId199" display="https://basketball.realgm.com/nba/teams/New-Jersey-Nets/18/Stats" xr:uid="{764170E9-5CB4-094E-BF41-86B657347929}"/>
-    <hyperlink ref="B180" r:id="rId200" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{5DA0696E-D56C-2E40-BC26-DD20CA908815}"/>
-    <hyperlink ref="B181" r:id="rId201" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{ED90EDEE-95F3-FB4C-A207-C3EFEB7B30EE}"/>
+    <hyperlink ref="B7" r:id="rId26" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{15473A2C-C693-5E4F-A963-68997D898FBD}"/>
+    <hyperlink ref="B8" r:id="rId27" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{81E71CD5-A5E4-AB46-994D-B67F4C9C5E65}"/>
+    <hyperlink ref="B9" r:id="rId28" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{1657A643-2152-3447-A987-0D08BBB53604}"/>
+    <hyperlink ref="B10" r:id="rId29" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{CB798A66-2D3E-6D4E-BD75-1068E2B26ECC}"/>
+    <hyperlink ref="B11" r:id="rId30" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{C9B68ED5-FADF-E14F-BFED-D7B1F431DCD8}"/>
+    <hyperlink ref="B12" r:id="rId31" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{A25F4C36-1944-B44B-9C0A-7606EFBC12A9}"/>
+    <hyperlink ref="B13" r:id="rId32" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{1E18DC13-4328-A94D-B095-8292D88E4ADC}"/>
+    <hyperlink ref="B14" r:id="rId33" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{AE4B4E7D-BD8C-1B4E-B6A4-8F63392354C2}"/>
+    <hyperlink ref="B15" r:id="rId34" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{25D30006-DFC5-484A-A4C0-A9061022C7F2}"/>
+    <hyperlink ref="B16" r:id="rId35" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{96F6F686-D6A7-B94E-B2F1-FB11F4BA330C}"/>
+    <hyperlink ref="B17" r:id="rId36" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{0E36D995-AA10-814A-A60C-DCD7987FC81C}"/>
+    <hyperlink ref="B18" r:id="rId37" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{7941D1D3-05CA-5A42-A73F-A63B36B7270C}"/>
+    <hyperlink ref="B19" r:id="rId38" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{87F11944-1316-334B-8C0B-55ED5C258C71}"/>
+    <hyperlink ref="B20" r:id="rId39" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{31CC5C0C-8130-B74B-8C7E-BDC147BE8A0F}"/>
+    <hyperlink ref="B21" r:id="rId40" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{EDD4B697-1C1B-0642-8A06-95EC1A306405}"/>
+    <hyperlink ref="B22" r:id="rId41" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{E0A52365-F5F0-2C48-9077-AC45A04D207B}"/>
+    <hyperlink ref="B23" r:id="rId42" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{7BA75719-BE94-954D-B418-A249DE94817C}"/>
+    <hyperlink ref="B24" r:id="rId43" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{7352E060-E060-F145-84F6-4953ACC15F49}"/>
+    <hyperlink ref="B25" r:id="rId44" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{4D255AD1-B168-D040-8637-5B22F1A42400}"/>
+    <hyperlink ref="B26" r:id="rId45" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{499AB710-77C7-F044-802E-669B9E71C169}"/>
+    <hyperlink ref="B27" r:id="rId46" display="https://basketball.realgm.com/nba/teams/Brooklyn-Nets/38/Stats" xr:uid="{9D82E2C1-5B09-3942-8565-0837B72AB193}"/>
+    <hyperlink ref="B28" r:id="rId47" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{B991D97B-4476-894A-AF5A-5AD96532336C}"/>
+    <hyperlink ref="B29" r:id="rId48" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{95D3B38B-2AC3-9E4C-89F8-F5E8AC4B14B2}"/>
+    <hyperlink ref="B30" r:id="rId49" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{BAD9E434-1093-D045-91E5-8E31C3DBD4D8}"/>
+    <hyperlink ref="B31" r:id="rId50" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{EA28AE9C-AE46-1649-A376-B1503FD0D0E8}"/>
+    <hyperlink ref="B32" r:id="rId51" display="https://basketball.realgm.com/nba/teams/Golden-State-Warriors/9/Stats" xr:uid="{D9CE7E40-FFDE-1244-BC39-3BA3C2F2255F}"/>
+    <hyperlink ref="B33" r:id="rId52" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{1226A6FE-CB6D-9640-AA03-C90556FB932A}"/>
+    <hyperlink ref="B34" r:id="rId53" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{9D51ED59-A810-2C4B-9EC4-DACC43856E19}"/>
+    <hyperlink ref="B35" r:id="rId54" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{2CDF3E11-08EA-5E43-A274-F688190F56D6}"/>
+    <hyperlink ref="B36" r:id="rId55" display="https://basketball.realgm.com/nba/teams/Oklahoma-City-Thunder/33/Stats" xr:uid="{504D7DFA-82C3-8945-9FF3-BEDAD59E225E}"/>
+    <hyperlink ref="B37" r:id="rId56" display="https://basketball.realgm.com/nba/teams/Houston-Rockets/10/Stats" xr:uid="{AB11B9A8-4C7F-B04D-A096-86650F4FD001}"/>
+    <hyperlink ref="B38" r:id="rId57" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{0E0D3DAD-D42C-1B40-8D4E-6CAFCAE77FA6}"/>
+    <hyperlink ref="B39" r:id="rId58" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{FE9CC5EB-7F0F-0145-8E51-06FE0E603634}"/>
+    <hyperlink ref="B40" r:id="rId59" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{A3BA4F1C-BCA1-1841-9136-3CF22D742314}"/>
+    <hyperlink ref="B41" r:id="rId60" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{3D58D815-F08F-6949-899A-E58DC26110C4}"/>
+    <hyperlink ref="B42" r:id="rId61" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{4156C81E-7C20-DE40-A72C-80CF41EF4EB3}"/>
+    <hyperlink ref="B43" r:id="rId62" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{81F522C8-FDDA-FC4C-A73B-EDEFADF309D9}"/>
+    <hyperlink ref="B44" r:id="rId63" display="https://basketball.realgm.com/nba/teams/Boston-Celtics/2/Stats" xr:uid="{98497AFC-A330-4F43-BBF7-B85662B46D8A}"/>
+    <hyperlink ref="B45" r:id="rId64" display="https://basketball.realgm.com/nba/teams/Sacramento-Kings/25/Stats" xr:uid="{B25B207B-E158-9141-8D9B-C783326D1622}"/>
+    <hyperlink ref="B46" r:id="rId65" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{07D5A53D-03D7-954E-B99E-5F025522452D}"/>
+    <hyperlink ref="B47" r:id="rId66" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{CC7ED725-0896-5F43-B330-1DF09CAC410E}"/>
+    <hyperlink ref="B48" r:id="rId67" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{2E6EAE4A-7835-D641-84D7-337B6F1C4EA1}"/>
+    <hyperlink ref="B49" r:id="rId68" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{62269066-BC55-AF4A-8D87-24E796698540}"/>
+    <hyperlink ref="B50" r:id="rId69" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{00637644-3C18-D340-94EA-E28A39831EFF}"/>
+    <hyperlink ref="B51" r:id="rId70" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{2EE6C694-4B31-A141-8D31-1B3AF6C6D3EF}"/>
+    <hyperlink ref="B52" r:id="rId71" display="https://basketball.realgm.com/nba/teams/Brooklyn-Nets/38/Stats" xr:uid="{A67BC0A7-A199-CC4A-873D-F28AE6ABDDA4}"/>
+    <hyperlink ref="B53" r:id="rId72" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{BD672A57-605F-3647-B96B-6BDA3C65DF8E}"/>
+    <hyperlink ref="B54" r:id="rId73" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{9506E474-95BC-AE49-9AB2-9FAF1794EBD0}"/>
+    <hyperlink ref="B55" r:id="rId74" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{6FF8C741-F251-BB49-B702-F247B03A52DF}"/>
+    <hyperlink ref="B56" r:id="rId75" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{350E7A43-49E4-4B4B-8A5A-4258FB1F841F}"/>
+    <hyperlink ref="B57" r:id="rId76" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{3AC71B13-9EB7-AA4F-AA5C-76AAEBF987F7}"/>
+    <hyperlink ref="B58" r:id="rId77" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{CF216D72-F72E-B440-9A4A-BD42227C9B8A}"/>
+    <hyperlink ref="B59" r:id="rId78" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{76D498C0-D588-094C-8EC1-17BC11E9C6D4}"/>
+    <hyperlink ref="B60" r:id="rId79" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{4180FE16-BEEF-9C4A-AC7E-C091EFA0B2C0}"/>
+    <hyperlink ref="B61" r:id="rId80" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{7B71A647-7DA1-C941-A97F-35CF7F75F555}"/>
+    <hyperlink ref="B62" r:id="rId81" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{D8E2A3F8-D5CD-7244-80B1-9ED9746FF295}"/>
+    <hyperlink ref="B63" r:id="rId82" display="https://basketball.realgm.com/nba/teams/Houston-Rockets/10/Stats" xr:uid="{82F875B7-F445-E544-A8D8-919C65F1603C}"/>
+    <hyperlink ref="B64" r:id="rId83" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{25468213-A649-D74C-819A-3311BD8BED8B}"/>
+    <hyperlink ref="B65" r:id="rId84" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{96BB3F37-9E01-4E48-B712-6AE0250037F8}"/>
+    <hyperlink ref="B66" r:id="rId85" display="https://basketball.realgm.com/nba/teams/Oklahoma-City-Thunder/33/Stats" xr:uid="{EDB4FEF6-3633-9344-979A-E93400B1795B}"/>
+    <hyperlink ref="B67" r:id="rId86" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{D562BEB3-FC37-4344-B6DC-ADD053E02183}"/>
+    <hyperlink ref="B68" r:id="rId87" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{CC58DAAF-99D6-7943-A659-F9DDD605DF44}"/>
+    <hyperlink ref="B69" r:id="rId88" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{8223E565-C618-8C41-A9FE-8637AA5542FD}"/>
+    <hyperlink ref="B70" r:id="rId89" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{B2B1FDB5-DAAF-354A-A032-83D455D1B12B}"/>
+    <hyperlink ref="B71" r:id="rId90" display="https://basketball.realgm.com/nba/teams/Golden-State-Warriors/9/Stats" xr:uid="{D24842DF-7A54-3145-8128-AD28AA1347D0}"/>
+    <hyperlink ref="B72" r:id="rId91" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{FC62AB42-0B9A-214D-BD56-5F2A404BD75A}"/>
+    <hyperlink ref="B73" r:id="rId92" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{2CC46303-1C18-4D4A-80D4-4D192647B602}"/>
+    <hyperlink ref="B74" r:id="rId93" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{D4AFCED5-AF16-A645-9332-CEF24FF6FE93}"/>
+    <hyperlink ref="B75" r:id="rId94" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{F4496402-8821-B647-91BD-15C240CCBC9E}"/>
+    <hyperlink ref="B76" r:id="rId95" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{32167C26-4889-C34D-AEC9-E064EF947B67}"/>
+    <hyperlink ref="B77" r:id="rId96" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{5081D7E3-66EE-C84F-9980-CB4DEAF32B0C}"/>
+    <hyperlink ref="B78" r:id="rId97" display="https://basketball.realgm.com/nba/teams/Sacramento-Kings/25/Stats" xr:uid="{44F187A2-02C5-BB44-A201-E0F6F23C3FDA}"/>
+    <hyperlink ref="B79" r:id="rId98" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{84FEF815-F13B-9941-9E11-2ED8AEA55043}"/>
+    <hyperlink ref="B80" r:id="rId99" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{2B9A5D6B-4C55-AA49-B377-5A72CA5841AA}"/>
+    <hyperlink ref="B81" r:id="rId100" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{947066F8-7177-2044-B42A-45F8ABF131E8}"/>
+    <hyperlink ref="B82" r:id="rId101" display="https://basketball.realgm.com/nba/teams/Brooklyn-Nets/38/Stats" xr:uid="{ED63181F-1326-F24E-806E-99898C80113B}"/>
+    <hyperlink ref="B83" r:id="rId102" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{CAB39560-1D30-F04A-962A-B49E02C37778}"/>
+    <hyperlink ref="B84" r:id="rId103" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{6B2A90A9-5318-4D45-B315-457AA5A394D1}"/>
+    <hyperlink ref="B85" r:id="rId104" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{59DAFCFA-1E35-AC47-B638-265C918E7161}"/>
+    <hyperlink ref="B86" r:id="rId105" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{DF0D5530-CD74-384F-96A0-6A1CDFED6EEA}"/>
+    <hyperlink ref="B87" r:id="rId106" display="https://basketball.realgm.com/nba/teams/Boston-Celtics/2/Stats" xr:uid="{00DA49EB-82EE-A848-B307-1D79B80E4316}"/>
+    <hyperlink ref="B88" r:id="rId107" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{6D53C5C0-AB3E-914B-9B67-52EA9F57726F}"/>
+    <hyperlink ref="B89" r:id="rId108" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{11068F53-09C4-3145-8609-117E7F4E719B}"/>
+    <hyperlink ref="B90" r:id="rId109" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{4DB3E4C9-CA0E-274E-93C7-AEC7A3BBDD1A}"/>
+    <hyperlink ref="B91" r:id="rId110" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{E13AFD63-C1E9-CD4F-8516-772D0151A327}"/>
+    <hyperlink ref="B92" r:id="rId111" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{27E266C6-AE2E-484F-9FA0-2AE47A380D22}"/>
+    <hyperlink ref="B93" r:id="rId112" display="https://basketball.realgm.com/nba/teams/Houston-Rockets/10/Stats" xr:uid="{868F15EE-9006-4E4C-9CFC-1C2D2B850CEF}"/>
+    <hyperlink ref="B94" r:id="rId113" display="https://basketball.realgm.com/nba/teams/Oklahoma-City-Thunder/33/Stats" xr:uid="{8588BFA4-2923-4341-A834-F0A3E9A17513}"/>
+    <hyperlink ref="B95" r:id="rId114" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{9BDEAC1E-65A5-8B4D-A8D9-2A0AA0E81359}"/>
+    <hyperlink ref="B96" r:id="rId115" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{D8B90AF0-65E6-7B40-9099-E1E369A64D69}"/>
+    <hyperlink ref="B97" r:id="rId116" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{7B1FD94C-DE97-EF46-B0CC-BC62B1CFB5C7}"/>
+    <hyperlink ref="B98" r:id="rId117" display="https://basketball.realgm.com/nba/teams/Golden-State-Warriors/9/Stats" xr:uid="{D3A2369F-E878-434A-841B-8AD99082C69B}"/>
+    <hyperlink ref="B99" r:id="rId118" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{08A06327-8DD6-0942-98A1-8DDDCFDB39E0}"/>
+    <hyperlink ref="B100" r:id="rId119" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{377B3BE6-053F-8D4F-8F0E-56479C5257AA}"/>
+    <hyperlink ref="B101" r:id="rId120" display="https://basketball.realgm.com/nba/teams/Sacramento-Kings/25/Stats" xr:uid="{2682EA4F-82E7-844A-8D43-52EDE365173B}"/>
+    <hyperlink ref="B102" r:id="rId121" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{E7D9203C-DF8F-4349-9066-855346ADE188}"/>
+    <hyperlink ref="B103" r:id="rId122" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{4850CB10-8267-4F45-8EF1-1E090F7616CF}"/>
+    <hyperlink ref="B104" r:id="rId123" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{08D6711F-EEBB-E546-913C-9403663A723D}"/>
+    <hyperlink ref="B105" r:id="rId124" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{3ADE9BC1-D50B-AF4B-A0EF-C38C7679C3BD}"/>
+    <hyperlink ref="B106" r:id="rId125" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{9093862C-B91F-A149-BA5D-7D81163D7AE3}"/>
+    <hyperlink ref="B107" r:id="rId126" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{DF91AAB7-1A67-AC45-96A1-9DDF0238D8D9}"/>
+    <hyperlink ref="B108" r:id="rId127" display="https://basketball.realgm.com/nba/teams/Brooklyn-Nets/38/Stats" xr:uid="{BA8DF927-3522-1744-BEA8-F579E9D92563}"/>
+    <hyperlink ref="B109" r:id="rId128" display="https://basketball.realgm.com/nba/teams/Boston-Celtics/2/Stats" xr:uid="{E14E9BB5-B716-1F44-BED8-76574D860595}"/>
+    <hyperlink ref="B110" r:id="rId129" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{C4F4B0D1-7D09-BD4E-BF37-119785F2E4B5}"/>
+    <hyperlink ref="B111" r:id="rId130" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{A832C620-31E7-8A45-838A-2BADD055526F}"/>
+    <hyperlink ref="B112" r:id="rId131" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{322B507D-388B-6449-BE17-748FDF9F0956}"/>
+    <hyperlink ref="B113" r:id="rId132" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{BB1148D7-23FF-2341-9A6D-68BA9E4D21A4}"/>
+    <hyperlink ref="B114" r:id="rId133" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{4825C1CF-07B2-C341-A1F8-DBD3BDCAFC86}"/>
+    <hyperlink ref="B115" r:id="rId134" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{A6E111CD-55D1-3A47-8E3E-6D21E1555C1A}"/>
+    <hyperlink ref="B116" r:id="rId135" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{1F74417B-9D65-BD4B-B783-8841A97BFAB6}"/>
+    <hyperlink ref="B117" r:id="rId136" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{361DF3A1-60A2-D042-BCD9-150B4C283970}"/>
+    <hyperlink ref="B118" r:id="rId137" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{55D913F6-0435-4D41-8E20-1CF2DA171048}"/>
+    <hyperlink ref="B119" r:id="rId138" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{4B4F800E-A8E7-1E43-9962-4F015EB13DE9}"/>
+    <hyperlink ref="B120" r:id="rId139" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{0448299A-A645-6047-B3BA-16EAE0388C59}"/>
+    <hyperlink ref="B121" r:id="rId140" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{EF81386A-EB5F-574E-A101-DD764A5D5438}"/>
+    <hyperlink ref="B122" r:id="rId141" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{92CF7EC5-ACCA-D54D-8F7A-5AE1792403A5}"/>
+    <hyperlink ref="B123" r:id="rId142" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{164574D0-882F-384C-BE1D-33E263F0C362}"/>
+    <hyperlink ref="B124" r:id="rId143" display="https://basketball.realgm.com/nba/teams/Oklahoma-City-Thunder/33/Stats" xr:uid="{ED421DD3-E019-AC45-ADAE-5F31BE83F77A}"/>
+    <hyperlink ref="B125" r:id="rId144" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{CEB9FC5C-65EC-3D47-8FBF-E67660905492}"/>
+    <hyperlink ref="B126" r:id="rId145" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{DB1AB5A6-7F7B-924C-96CF-9B0D514FEA2C}"/>
+    <hyperlink ref="B127" r:id="rId146" display="https://basketball.realgm.com/nba/teams/Sacramento-Kings/25/Stats" xr:uid="{A2110405-9FDE-E54C-9042-9251003360AB}"/>
+    <hyperlink ref="B128" r:id="rId147" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{AD2D31C5-67E1-2D47-809B-63E76F16E862}"/>
+    <hyperlink ref="B129" r:id="rId148" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{23B70678-29D8-9148-AB98-A846B878954E}"/>
+    <hyperlink ref="B130" r:id="rId149" display="https://basketball.realgm.com/nba/teams/Houston-Rockets/10/Stats" xr:uid="{F8764AD6-2FEE-B241-B8BC-7FC4ABA0A48C}"/>
+    <hyperlink ref="B131" r:id="rId150" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{80304F9E-9319-A147-8097-4FE528C44FE4}"/>
+    <hyperlink ref="B132" r:id="rId151" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{506A7BED-FC69-0B4D-A42F-A2C8BE03A35B}"/>
+    <hyperlink ref="B133" r:id="rId152" display="https://basketball.realgm.com/nba/teams/Golden-State-Warriors/9/Stats" xr:uid="{E20AE473-2C4B-5443-9C2B-CBDBB28692CF}"/>
+    <hyperlink ref="B134" r:id="rId153" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{AAD5DE9B-3FD2-4B4A-BBF0-9B34756711C5}"/>
+    <hyperlink ref="B135" r:id="rId154" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{9C5DD24C-27AA-0142-BBAB-788BE3788C87}"/>
+    <hyperlink ref="B136" r:id="rId155" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{09AD0154-F03B-904B-A633-71AD0BAB3A8D}"/>
+    <hyperlink ref="B137" r:id="rId156" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{732306E3-84DD-1642-875F-F6AB9A0B6D5B}"/>
+    <hyperlink ref="B138" r:id="rId157" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{64C27C79-8F54-3A47-BEC1-1B80634C51EA}"/>
+    <hyperlink ref="B139" r:id="rId158" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{A72B8C60-DF27-4B4D-A0B1-C7ED0912C021}"/>
+    <hyperlink ref="B140" r:id="rId159" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{4C2CF38D-C945-D04E-AF22-8AE3F214FFAE}"/>
+    <hyperlink ref="B141" r:id="rId160" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{28DAB44B-2846-9340-8652-30AFCB49E717}"/>
+    <hyperlink ref="B142" r:id="rId161" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{27FB3F26-76EE-0C46-B67F-314DA9DAA0C4}"/>
+    <hyperlink ref="B143" r:id="rId162" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{A744EFC2-007C-4C4A-B34A-F574B0E60AE1}"/>
+    <hyperlink ref="B144" r:id="rId163" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{7D7D9519-EFDB-AD4D-A787-2877E4529DA1}"/>
+    <hyperlink ref="B145" r:id="rId164" display="https://basketball.realgm.com/nba/teams/New-Jersey-Nets/18/Stats" xr:uid="{C6269BB4-FD76-2345-B909-B6580313A2D5}"/>
+    <hyperlink ref="B146" r:id="rId165" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{BF7F4569-3957-954C-8626-34902AC9465E}"/>
+    <hyperlink ref="B147" r:id="rId166" display="https://basketball.realgm.com/nba/teams/Boston-Celtics/2/Stats" xr:uid="{5DEA40AF-54DD-5146-8E7D-A0B48CC201D6}"/>
+    <hyperlink ref="B148" r:id="rId167" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{CDA7E227-3DAF-0C44-AFFC-889228704BD1}"/>
+    <hyperlink ref="B149" r:id="rId168" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{EF8100C6-135B-0143-98DB-A222CA1F4578}"/>
+    <hyperlink ref="B150" r:id="rId169" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{D412B240-DC82-DD4B-8644-BCD4A1160BC8}"/>
+    <hyperlink ref="B151" r:id="rId170" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{3DCBF76F-A02E-634E-BDAE-A5BDF9EF28C9}"/>
+    <hyperlink ref="B152" r:id="rId171" display="https://basketball.realgm.com/nba/teams/Denver-Nuggets/7/Stats" xr:uid="{EC5EC35E-41CB-8E49-BBFD-3D9EE6A67238}"/>
+    <hyperlink ref="B153" r:id="rId172" display="https://basketball.realgm.com/nba/teams/New-York-Knicks/20/Stats" xr:uid="{44D106BF-AC30-944B-BDB8-839931EE1484}"/>
+    <hyperlink ref="B154" r:id="rId173" display="https://basketball.realgm.com/nba/teams/Houston-Rockets/10/Stats" xr:uid="{C1F90CC5-9E10-6846-8E98-3AB77BBF75D4}"/>
+    <hyperlink ref="B155" r:id="rId174" display="https://basketball.realgm.com/nba/teams/Phoenix-Suns/23/Stats" xr:uid="{BC7260E9-AB96-5A40-8E93-1133B3EB2F0C}"/>
+    <hyperlink ref="B156" r:id="rId175" display="https://basketball.realgm.com/nba/teams/Oklahoma-City-Thunder/33/Stats" xr:uid="{A0D9DA34-8585-7644-A8AE-8FC9454EE80D}"/>
+    <hyperlink ref="B157" r:id="rId176" display="https://basketball.realgm.com/nba/teams/San-Antonio-Spurs/26/Stats" xr:uid="{998858C8-D913-EC4E-81F6-7AFF6F9E5C9E}"/>
+    <hyperlink ref="B158" r:id="rId177" display="https://basketball.realgm.com/nba/teams/Golden-State-Warriors/9/Stats" xr:uid="{3513614A-E4A4-7F4E-87E4-1D7E2E934CEA}"/>
+    <hyperlink ref="B159" r:id="rId178" display="https://basketball.realgm.com/nba/teams/Miami-Heat/15/Stats" xr:uid="{07AE38CF-2592-9A41-9F88-926475684743}"/>
+    <hyperlink ref="B160" r:id="rId179" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Lakers/13/Stats" xr:uid="{5E3AEFB8-6F33-9448-B592-5277F79DBFF5}"/>
+    <hyperlink ref="B161" r:id="rId180" display="https://basketball.realgm.com/nba/teams/Minnesota-Timberwolves/17/Stats" xr:uid="{4563DA6A-5446-F246-920A-11523A4694EE}"/>
+    <hyperlink ref="B162" r:id="rId181" display="https://basketball.realgm.com/nba/teams/Dallas-Mavericks/6/Stats" xr:uid="{7B78569D-5FC8-AE44-AE49-EBD1B7CC8903}"/>
+    <hyperlink ref="B163" r:id="rId182" display="https://basketball.realgm.com/nba/teams/Memphis-Grizzlies/14/Stats" xr:uid="{9D697B28-5BAA-2541-A0AE-327796FBC71E}"/>
+    <hyperlink ref="B164" r:id="rId183" display="https://basketball.realgm.com/nba/teams/Indiana-Pacers/11/Stats" xr:uid="{8B711652-7247-1A4A-AE8D-7924511CFD93}"/>
+    <hyperlink ref="B165" r:id="rId184" display="https://basketball.realgm.com/nba/teams/Utah-Jazz/29/Stats" xr:uid="{24C93511-6A44-664B-AD7B-6F28BFB38E20}"/>
+    <hyperlink ref="B166" r:id="rId185" display="https://basketball.realgm.com/nba/teams/Sacramento-Kings/25/Stats" xr:uid="{DCE53FAE-763C-5D4F-B254-8FDA8A69D2FD}"/>
+    <hyperlink ref="B167" r:id="rId186" display="https://basketball.realgm.com/nba/teams/Orlando-Magic/21/Stats" xr:uid="{E227AA30-5A51-7540-B508-441CB51BE6CD}"/>
+    <hyperlink ref="B168" r:id="rId187" display="https://basketball.realgm.com/nba/teams/Toronto-Raptors/28/Stats" xr:uid="{ED468236-3CF2-9D44-83E7-1E80F57D89B0}"/>
+    <hyperlink ref="B169" r:id="rId188" display="https://basketball.realgm.com/nba/teams/Philadelphia-Sixers/22/Stats" xr:uid="{105132E3-812C-2B4B-B8C8-7A07FF1732BA}"/>
+    <hyperlink ref="B170" r:id="rId189" display="https://basketball.realgm.com/nba/teams/Los-Angeles-Clippers/12/Stats" xr:uid="{5D86B4AA-F711-6D47-A885-F0B378D767E4}"/>
+    <hyperlink ref="B171" r:id="rId190" display="https://basketball.realgm.com/nba/teams/Chicago-Bulls/4/Stats" xr:uid="{15A9DE8A-F999-C24F-9B5B-4A903D3CA7B5}"/>
+    <hyperlink ref="B172" r:id="rId191" display="https://basketball.realgm.com/nba/teams/Washington-Wizards/30/Stats" xr:uid="{4BAD6E57-06F9-9E49-80DA-D46258EDD7E8}"/>
+    <hyperlink ref="B173" r:id="rId192" display="https://basketball.realgm.com/nba/teams/Detroit-Pistons/8/Stats" xr:uid="{B0A4427F-C621-864A-B3EE-D7ED748F9803}"/>
+    <hyperlink ref="B174" r:id="rId193" display="https://basketball.realgm.com/nba/teams/Boston-Celtics/2/Stats" xr:uid="{94231874-79B9-C34D-BF0D-57D9BCF66CAC}"/>
+    <hyperlink ref="B175" r:id="rId194" display="https://basketball.realgm.com/nba/teams/Portland-Trail-Blazers/24/Stats" xr:uid="{EEBED650-C3B3-FB45-A910-4CF64C37546E}"/>
+    <hyperlink ref="B176" r:id="rId195" display="https://basketball.realgm.com/nba/teams/Cleveland-Cavaliers/5/Stats" xr:uid="{CE4EE2F7-8E27-1C43-8425-4995E5E18D38}"/>
+    <hyperlink ref="B177" r:id="rId196" display="https://basketball.realgm.com/nba/teams/Atlanta-Hawks/1/Stats" xr:uid="{CBE63B5C-CD0C-BE4A-B3AE-6BCEA73B531C}"/>
+    <hyperlink ref="B178" r:id="rId197" display="https://basketball.realgm.com/nba/teams/New-Orleans-Pelicans/19/Stats" xr:uid="{329BF99D-2969-F044-A44C-357F13DB955D}"/>
+    <hyperlink ref="B179" r:id="rId198" display="https://basketball.realgm.com/nba/teams/New-Jersey-Nets/18/Stats" xr:uid="{764170E9-5CB4-094E-BF41-86B657347929}"/>
+    <hyperlink ref="B180" r:id="rId199" display="https://basketball.realgm.com/nba/teams/Charlotte-Hornets/3/Stats" xr:uid="{5DA0696E-D56C-2E40-BC26-DD20CA908815}"/>
+    <hyperlink ref="B181" r:id="rId200" display="https://basketball.realgm.com/nba/teams/Milwaukee-Bucks/16/Stats" xr:uid="{ED90EDEE-95F3-FB4C-A207-C3EFEB7B30EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
